--- a/BaoCao/Layout/Nhom19_ChiTiet_TaoBaoGia.xlsx
+++ b/BaoCao/Layout/Nhom19_ChiTiet_TaoBaoGia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\OOP_Techniques\Layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4951D8-8F32-4C7E-8F9F-A6DCC62209D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309F6E67-3D01-41A2-8657-65F49B4516E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="826" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="826" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_bìa" sheetId="19" r:id="rId1"/>
@@ -31,11 +31,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Trang_bìa!$A$1:$AW$160</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Xử lý 10.1'!$A$1:$AW$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Xử lý 10.2'!$A$1:$AW$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Xử lý 10.3'!$A$1:$AW$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Xử lý 10.3'!$A$1:$AW$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Xử lý 10.4'!$A$1:$AW$85</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Xử lý 10.5'!$A$1:$AW$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Xử lý 10.6'!$A$1:$AW$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'Xử lý 10.7'!$A$1:$AW$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Xử lý 10.6'!$A$1:$AW$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Xử lý 10.7'!$A$1:$AW$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'Xử lý 10.8'!$A$1:$AW$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'機能間関連図 (2)'!$A:$AW</definedName>
   </definedNames>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="260">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -639,9 +639,6 @@
     <t>EditText</t>
   </si>
   <si>
-    <t>3. Cập nhật lại trạng thái button Tiến hành đặt hàng</t>
-  </si>
-  <si>
     <t>(1) Hiển thị ban đầu</t>
   </si>
   <si>
@@ -957,9 +954,6 @@
     <t xml:space="preserve">2. Cập nhật các thông tin của Phiếu tiếp nhận: xe, khách hàng, </t>
   </si>
   <si>
-    <t>a. Nhận các thông tin của Phiếu tiếp nhận thông qua API</t>
-  </si>
-  <si>
     <t>b. Hiển thị các thông tin lên Vùng Nhập</t>
   </si>
   <si>
@@ -980,18 +974,6 @@
   </si>
   <si>
     <t>Receip.Vehicle.Type</t>
-  </si>
-  <si>
-    <t>1. Nhập tên sản phẩm, dịch vụ vào vùng "Tìm kiếm sản phẩm, dịch vụ"</t>
-  </si>
-  <si>
-    <t>2. Các Sản phẩm, dịch vụ tương ứng với giá trị tìm kiếm sẽ được hiển thị</t>
-  </si>
-  <si>
-    <t>Ảnh tìm kiếm sản phẩm, dịch vụ</t>
-  </si>
-  <si>
-    <t>3. Nhấn chọn sản phẩm, dịch vụ để thêm vào bảng tương ứng</t>
   </si>
   <si>
     <t>Tên hãng xe</t>
@@ -1043,20 +1025,6 @@
   </si>
   <si>
     <t>(5) Xử lý bỏ chọn sản phẩm, dịch vụ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. Delete data tại table PQ_Service_Detail/PQ_Product_Detail thông qua API: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/api/shopcart/delete</t>
-    </r>
   </si>
   <si>
     <t>Tổng tiền của tất cả các sản phẩm, dịch vụ chưa có VAT</t>
@@ -1153,6 +1121,53 @@
   </si>
   <si>
     <t>b. VAT 8%: (Tổng tiền SP, DV) *8%</t>
+  </si>
+  <si>
+    <t>3. Cập nhật các số liệu ở Vùng Bảng Tổng tiền báo giá</t>
+  </si>
+  <si>
+    <t>2. Cập nhật tổng tiền của dịch vụ, sản phẩm</t>
+  </si>
+  <si>
+    <t>1. Đổ dữ liệu lên dropdown Tên sản phẩm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a. Nhận thông tin tất cả các tên sản phẩm qua API </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GET: http://localhost:8888/api/product</t>
+    </r>
+  </si>
+  <si>
+    <t>b. Hiển thị tất cả các tên sản phẩm thông qua Dropdown button "Tên sản phẩm"</t>
+  </si>
+  <si>
+    <t>2. Chọn sản phẩm</t>
+  </si>
+  <si>
+    <t>a. Nhấn chọn sản phẩm</t>
+  </si>
+  <si>
+    <t>b. Lưu lại lựa chọn của người dùng</t>
+  </si>
+  <si>
+    <t>+ Lưu thông tin vào bàng PriceQuote: POST  api/pricequote</t>
+  </si>
+  <si>
+    <t>+ Lưu thông tin vào bàng PQ_Service_Detail: POST  api/pqservicedetail</t>
+  </si>
+  <si>
+    <t>+ Lưu thông tin vào bàng PQ_Product_Detail: POST  api/pqproductdetail</t>
+  </si>
+  <si>
+    <t>a. Nhận các thông tin của Phiếu tiếp nhận thông qua API: GET: api/receipt/{ReceiptID}</t>
   </si>
 </sst>
 </file>
@@ -1286,8 +1301,8 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -13020,6 +13035,55 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24382C33-1822-4C40-89A6-BE84B68E104A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="1628776"/>
+          <a:ext cx="1647825" cy="1252892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -17671,7 +17735,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -31548,7 +31612,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:AX161"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A122" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A115" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
@@ -31595,7 +31659,7 @@
       <c r="Y1" s="340"/>
       <c r="Z1" s="341"/>
       <c r="AA1" s="345" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB1" s="325"/>
       <c r="AC1" s="325"/>
@@ -31613,7 +31677,7 @@
       </c>
       <c r="AN1" s="335"/>
       <c r="AO1" s="347" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AP1" s="348"/>
       <c r="AQ1" s="349"/>
@@ -31713,7 +31777,7 @@
       <c r="Y3" s="351"/>
       <c r="Z3" s="352"/>
       <c r="AA3" s="353" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB3" s="354"/>
       <c r="AC3" s="354"/>
@@ -31729,7 +31793,7 @@
       <c r="AK3" s="357"/>
       <c r="AL3" s="358"/>
       <c r="AM3" s="353" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN3" s="354"/>
       <c r="AO3" s="354"/>
@@ -31969,7 +32033,7 @@
     <row r="13" spans="1:49" ht="13.5" customHeight="1">
       <c r="A13" s="20"/>
       <c r="B13" s="415" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C13" s="416"/>
       <c r="D13" s="416"/>
@@ -33045,7 +33109,7 @@
       <c r="Y41" s="340"/>
       <c r="Z41" s="341"/>
       <c r="AA41" s="345" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB41" s="325"/>
       <c r="AC41" s="325"/>
@@ -33063,7 +33127,7 @@
       </c>
       <c r="AN41" s="335"/>
       <c r="AO41" s="347" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AP41" s="348"/>
       <c r="AQ41" s="349"/>
@@ -33163,7 +33227,7 @@
       <c r="Y43" s="351"/>
       <c r="Z43" s="352"/>
       <c r="AA43" s="353" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB43" s="354"/>
       <c r="AC43" s="354"/>
@@ -33179,7 +33243,7 @@
       <c r="AK43" s="357"/>
       <c r="AL43" s="358"/>
       <c r="AM43" s="353" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN43" s="354"/>
       <c r="AO43" s="354"/>
@@ -33454,7 +33518,7 @@
       <c r="Y49" s="410"/>
       <c r="Z49" s="411"/>
       <c r="AA49" s="430" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB49" s="431"/>
       <c r="AC49" s="431"/>
@@ -35096,7 +35160,7 @@
       <c r="Y81" s="340"/>
       <c r="Z81" s="341"/>
       <c r="AA81" s="345" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB81" s="325"/>
       <c r="AC81" s="325"/>
@@ -35114,7 +35178,7 @@
       </c>
       <c r="AN81" s="335"/>
       <c r="AO81" s="347" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AP81" s="348"/>
       <c r="AQ81" s="349"/>
@@ -35214,7 +35278,7 @@
       <c r="Y83" s="351"/>
       <c r="Z83" s="352"/>
       <c r="AA83" s="353" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB83" s="354"/>
       <c r="AC83" s="354"/>
@@ -35230,7 +35294,7 @@
       <c r="AK83" s="357"/>
       <c r="AL83" s="358"/>
       <c r="AM83" s="353" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN83" s="354"/>
       <c r="AO83" s="354"/>
@@ -35351,7 +35415,7 @@
       <c r="A86" s="20"/>
       <c r="B86" s="27"/>
       <c r="C86" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D86" s="22"/>
       <c r="E86" s="22"/>
@@ -35404,7 +35468,7 @@
       <c r="A87" s="20"/>
       <c r="B87" s="27"/>
       <c r="C87" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D87" s="22"/>
       <c r="E87" s="22"/>
@@ -37137,7 +37201,7 @@
       <c r="Y121" s="340"/>
       <c r="Z121" s="341"/>
       <c r="AA121" s="345" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB121" s="325"/>
       <c r="AC121" s="325"/>
@@ -37155,7 +37219,7 @@
       </c>
       <c r="AN121" s="335"/>
       <c r="AO121" s="347" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AP121" s="348"/>
       <c r="AQ121" s="349"/>
@@ -37255,7 +37319,7 @@
       <c r="Y123" s="351"/>
       <c r="Z123" s="352"/>
       <c r="AA123" s="353" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB123" s="354"/>
       <c r="AC123" s="354"/>
@@ -37271,7 +37335,7 @@
       <c r="AK123" s="357"/>
       <c r="AL123" s="358"/>
       <c r="AM123" s="353" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN123" s="354"/>
       <c r="AO123" s="354"/>
@@ -38480,14 +38544,14 @@
       </c>
       <c r="F147" s="48"/>
       <c r="G147" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H147" s="50"/>
       <c r="I147" s="50"/>
       <c r="J147" s="50"/>
       <c r="K147" s="51"/>
       <c r="L147" s="194" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M147" s="185"/>
       <c r="N147" s="50"/>
@@ -38541,14 +38605,14 @@
       </c>
       <c r="F148" s="55"/>
       <c r="G148" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H148" s="57"/>
       <c r="I148" s="57"/>
       <c r="J148" s="57"/>
       <c r="K148" s="58"/>
       <c r="L148" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M148" s="57"/>
       <c r="N148" s="57"/>
@@ -38602,14 +38666,14 @@
       </c>
       <c r="F149" s="55"/>
       <c r="G149" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H149" s="57"/>
       <c r="I149" s="57"/>
       <c r="J149" s="57"/>
       <c r="K149" s="58"/>
       <c r="L149" s="193" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M149" s="57"/>
       <c r="N149" s="57"/>
@@ -38663,14 +38727,14 @@
       </c>
       <c r="F150" s="48"/>
       <c r="G150" s="195" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H150" s="57"/>
       <c r="I150" s="57"/>
       <c r="J150" s="57"/>
       <c r="K150" s="58"/>
       <c r="L150" s="59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M150" s="57"/>
       <c r="N150" s="57"/>
@@ -38724,14 +38788,14 @@
       </c>
       <c r="F151" s="55"/>
       <c r="G151" s="195" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H151" s="57"/>
       <c r="I151" s="57"/>
       <c r="J151" s="57"/>
       <c r="K151" s="58"/>
       <c r="L151" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M151" s="57"/>
       <c r="N151" s="57"/>
@@ -38785,14 +38849,14 @@
       </c>
       <c r="F152" s="55"/>
       <c r="G152" s="61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H152" s="62"/>
       <c r="I152" s="62"/>
       <c r="J152" s="62"/>
       <c r="K152" s="66"/>
       <c r="L152" s="67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M152" s="62"/>
       <c r="N152" s="62"/>
@@ -38846,14 +38910,14 @@
       </c>
       <c r="F153" s="65"/>
       <c r="G153" s="61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H153" s="62"/>
       <c r="I153" s="62"/>
       <c r="J153" s="62"/>
       <c r="K153" s="66"/>
       <c r="L153" s="67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M153" s="62"/>
       <c r="N153" s="62"/>
@@ -39479,7 +39543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515DF39A-624E-4703-9C18-58619408CE8D}">
   <dimension ref="A1:BF23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="113" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="113" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -39528,7 +39592,7 @@
       <c r="Y1" s="340"/>
       <c r="Z1" s="341"/>
       <c r="AA1" s="345" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB1" s="325"/>
       <c r="AC1" s="325"/>
@@ -39546,7 +39610,7 @@
       </c>
       <c r="AN1" s="335"/>
       <c r="AO1" s="347" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AP1" s="348"/>
       <c r="AQ1" s="349"/>
@@ -39662,7 +39726,7 @@
       <c r="Y3" s="351"/>
       <c r="Z3" s="352"/>
       <c r="AA3" s="353" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB3" s="354"/>
       <c r="AC3" s="354"/>
@@ -39678,7 +39742,7 @@
       <c r="AK3" s="357"/>
       <c r="AL3" s="358"/>
       <c r="AM3" s="353" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN3" s="354"/>
       <c r="AO3" s="354"/>
@@ -39823,7 +39887,7 @@
       <c r="A6" s="20"/>
       <c r="B6" s="27"/>
       <c r="C6" s="18" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -39885,7 +39949,7 @@
       <c r="B7" s="27"/>
       <c r="C7" s="18"/>
       <c r="D7" s="114" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
@@ -39946,7 +40010,7 @@
       <c r="B8" s="27"/>
       <c r="C8" s="18"/>
       <c r="D8" s="22" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E8" s="135"/>
       <c r="F8" s="22"/>
@@ -40008,7 +40072,7 @@
       <c r="C9" s="18"/>
       <c r="D9" s="114"/>
       <c r="E9" s="22" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -40069,7 +40133,7 @@
       <c r="C10" s="18"/>
       <c r="D10" s="114"/>
       <c r="E10" s="22" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
@@ -40891,6 +40955,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AM3:AW3"/>
     <mergeCell ref="A1:I3"/>
@@ -40906,8 +40972,6 @@
     <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="30" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -43789,8 +43853,8 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:BF185"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A133" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="T148" sqref="T148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1"/>
@@ -43838,7 +43902,7 @@
       <c r="Y1" s="340"/>
       <c r="Z1" s="341"/>
       <c r="AA1" s="345" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB1" s="325"/>
       <c r="AC1" s="325"/>
@@ -43856,7 +43920,7 @@
       </c>
       <c r="AN1" s="335"/>
       <c r="AO1" s="347" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AP1" s="348"/>
       <c r="AQ1" s="349"/>
@@ -43956,7 +44020,7 @@
       <c r="Y3" s="351"/>
       <c r="Z3" s="352"/>
       <c r="AA3" s="353" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB3" s="354"/>
       <c r="AC3" s="354"/>
@@ -43972,7 +44036,7 @@
       <c r="AK3" s="357"/>
       <c r="AL3" s="358"/>
       <c r="AM3" s="353" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN3" s="354"/>
       <c r="AO3" s="354"/>
@@ -44786,7 +44850,7 @@
       <c r="Y57" s="340"/>
       <c r="Z57" s="341"/>
       <c r="AA57" s="345" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB57" s="441"/>
       <c r="AC57" s="441"/>
@@ -44804,7 +44868,7 @@
       </c>
       <c r="AN57" s="335"/>
       <c r="AO57" s="347" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AP57" s="348"/>
       <c r="AQ57" s="349"/>
@@ -44904,7 +44968,7 @@
       <c r="Y59" s="351"/>
       <c r="Z59" s="352"/>
       <c r="AA59" s="353" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB59" s="354"/>
       <c r="AC59" s="354"/>
@@ -44920,7 +44984,7 @@
       <c r="AK59" s="357"/>
       <c r="AL59" s="358"/>
       <c r="AM59" s="353" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN59" s="354"/>
       <c r="AO59" s="354"/>
@@ -45095,7 +45159,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E65" s="80"/>
       <c r="F65" s="80"/>
@@ -45114,7 +45178,7 @@
       <c r="Q65" s="81"/>
       <c r="R65" s="82"/>
       <c r="S65" s="80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T65" s="242"/>
       <c r="U65" s="209"/>
@@ -45156,7 +45220,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E66" s="89"/>
       <c r="F66" s="89"/>
@@ -45175,7 +45239,7 @@
       <c r="Q66" s="90"/>
       <c r="R66" s="91"/>
       <c r="S66" s="89" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T66" s="243"/>
       <c r="U66" s="212"/>
@@ -45217,7 +45281,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E67" s="89"/>
       <c r="F67" s="89"/>
@@ -45236,7 +45300,7 @@
       <c r="Q67" s="90"/>
       <c r="R67" s="91"/>
       <c r="S67" s="89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T67" s="243"/>
       <c r="U67" s="212"/>
@@ -45278,7 +45342,7 @@
         <v>4</v>
       </c>
       <c r="D68" s="88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E68" s="89"/>
       <c r="F68" s="89"/>
@@ -45297,7 +45361,7 @@
       <c r="Q68" s="90"/>
       <c r="R68" s="91"/>
       <c r="S68" s="89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T68" s="243"/>
       <c r="U68" s="212"/>
@@ -45339,7 +45403,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="159" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E69" s="160"/>
       <c r="F69" s="160"/>
@@ -45358,7 +45422,7 @@
       <c r="Q69" s="161"/>
       <c r="R69" s="162"/>
       <c r="S69" s="159" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T69" s="244"/>
       <c r="U69" s="245"/>
@@ -45399,7 +45463,7 @@
         <v>6</v>
       </c>
       <c r="D70" s="159" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E70" s="160"/>
       <c r="F70" s="160"/>
@@ -45418,7 +45482,7 @@
       <c r="Q70" s="161"/>
       <c r="R70" s="162"/>
       <c r="S70" s="159" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T70" s="244"/>
       <c r="U70" s="245"/>
@@ -45460,7 +45524,7 @@
         <v>7</v>
       </c>
       <c r="D71" s="159" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E71" s="160"/>
       <c r="F71" s="160"/>
@@ -45479,7 +45543,7 @@
       <c r="Q71" s="161"/>
       <c r="R71" s="162"/>
       <c r="S71" s="160" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T71" s="244"/>
       <c r="U71" s="245"/>
@@ -45521,7 +45585,7 @@
         <v>8</v>
       </c>
       <c r="D72" s="96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E72" s="97"/>
       <c r="F72" s="97"/>
@@ -45540,7 +45604,7 @@
       <c r="Q72" s="98"/>
       <c r="R72" s="99"/>
       <c r="S72" s="97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T72" s="265"/>
       <c r="U72" s="266"/>
@@ -45717,7 +45781,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E76" s="80"/>
       <c r="F76" s="80"/>
@@ -45734,7 +45798,7 @@
       <c r="O76" s="209"/>
       <c r="P76" s="210"/>
       <c r="Q76" s="83" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R76" s="81"/>
       <c r="S76" s="84"/>
@@ -45753,7 +45817,7 @@
       <c r="AB76" s="80"/>
       <c r="AC76" s="80"/>
       <c r="AD76" s="79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE76" s="80"/>
       <c r="AF76" s="80"/>
@@ -45781,7 +45845,7 @@
         <v>2</v>
       </c>
       <c r="D77" s="88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E77" s="89"/>
       <c r="F77" s="89"/>
@@ -45798,7 +45862,7 @@
       <c r="O77" s="212"/>
       <c r="P77" s="213"/>
       <c r="Q77" s="216" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R77" s="217"/>
       <c r="S77" s="93"/>
@@ -45817,7 +45881,7 @@
       <c r="AB77" s="89"/>
       <c r="AC77" s="89"/>
       <c r="AD77" s="88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE77" s="89"/>
       <c r="AF77" s="89"/>
@@ -45845,7 +45909,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E78" s="89"/>
       <c r="F78" s="89"/>
@@ -45853,7 +45917,7 @@
       <c r="H78" s="90"/>
       <c r="I78" s="91"/>
       <c r="J78" s="92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K78" s="90"/>
       <c r="L78" s="90"/>
@@ -45862,7 +45926,7 @@
       <c r="O78" s="212"/>
       <c r="P78" s="213"/>
       <c r="Q78" s="92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R78" s="90"/>
       <c r="S78" s="93"/>
@@ -45871,7 +45935,7 @@
       </c>
       <c r="U78" s="248"/>
       <c r="V78" s="88" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W78" s="89"/>
       <c r="X78" s="89"/>
@@ -45881,7 +45945,7 @@
       <c r="AB78" s="89"/>
       <c r="AC78" s="89"/>
       <c r="AD78" s="88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE78" s="89"/>
       <c r="AF78" s="89"/>
@@ -45909,7 +45973,7 @@
         <v>4</v>
       </c>
       <c r="D79" s="88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E79" s="89"/>
       <c r="F79" s="89"/>
@@ -45925,7 +45989,7 @@
       <c r="O79" s="205"/>
       <c r="P79" s="206"/>
       <c r="Q79" s="92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R79" s="90"/>
       <c r="S79" s="93"/>
@@ -45944,7 +46008,7 @@
       <c r="AB79" s="89"/>
       <c r="AC79" s="89"/>
       <c r="AD79" s="88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE79" s="89"/>
       <c r="AF79" s="89"/>
@@ -45972,7 +46036,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="159" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E80" s="89"/>
       <c r="F80" s="89"/>
@@ -45989,7 +46053,7 @@
       <c r="O80" s="205"/>
       <c r="P80" s="206"/>
       <c r="Q80" s="214" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R80" s="19"/>
       <c r="S80" s="93"/>
@@ -46008,7 +46072,7 @@
       <c r="AB80" s="89"/>
       <c r="AC80" s="89"/>
       <c r="AD80" s="88" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AE80" s="89"/>
       <c r="AF80" s="89"/>
@@ -46036,7 +46100,7 @@
         <v>6</v>
       </c>
       <c r="D81" s="159" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E81" s="89"/>
       <c r="F81" s="89"/>
@@ -46053,7 +46117,7 @@
       <c r="O81" s="205"/>
       <c r="P81" s="206"/>
       <c r="Q81" s="214" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R81" s="90"/>
       <c r="S81" s="93"/>
@@ -46072,7 +46136,7 @@
       <c r="AB81" s="89"/>
       <c r="AC81" s="89"/>
       <c r="AD81" s="88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE81" s="89"/>
       <c r="AF81" s="89"/>
@@ -46100,7 +46164,7 @@
         <v>7</v>
       </c>
       <c r="D82" s="159" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E82" s="89"/>
       <c r="F82" s="89"/>
@@ -46117,7 +46181,7 @@
       <c r="O82" s="205"/>
       <c r="P82" s="206"/>
       <c r="Q82" s="92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R82" s="90"/>
       <c r="S82" s="93"/>
@@ -46136,7 +46200,7 @@
       <c r="AB82" s="89"/>
       <c r="AC82" s="89"/>
       <c r="AD82" s="88" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE82" s="89"/>
       <c r="AF82" s="89"/>
@@ -46164,7 +46228,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E83" s="97"/>
       <c r="F83" s="97"/>
@@ -46181,7 +46245,7 @@
       <c r="O83" s="101"/>
       <c r="P83" s="98"/>
       <c r="Q83" s="215" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R83" s="170"/>
       <c r="S83" s="102"/>
@@ -46200,7 +46264,7 @@
       <c r="AB83" s="97"/>
       <c r="AC83" s="97"/>
       <c r="AD83" s="96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AE83" s="97"/>
       <c r="AF83" s="97"/>
@@ -46275,7 +46339,7 @@
     <row r="85" spans="1:49" ht="13.5" customHeight="1">
       <c r="A85" s="20"/>
       <c r="C85" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM85" s="22"/>
       <c r="AN85" s="22"/>
@@ -46361,7 +46425,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E87" s="89"/>
       <c r="F87" s="89"/>
@@ -46421,7 +46485,7 @@
         <v>2</v>
       </c>
       <c r="D88" s="88" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E88" s="89"/>
       <c r="F88" s="89"/>
@@ -46455,7 +46519,7 @@
       <c r="AB88" s="89"/>
       <c r="AC88" s="89"/>
       <c r="AD88" s="79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AE88" s="89"/>
       <c r="AF88" s="89"/>
@@ -46517,7 +46581,7 @@
       <c r="AB89" s="89"/>
       <c r="AC89" s="89"/>
       <c r="AD89" s="79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AE89" s="89"/>
       <c r="AF89" s="89"/>
@@ -46545,7 +46609,7 @@
         <v>4</v>
       </c>
       <c r="D90" s="88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E90" s="89"/>
       <c r="F90" s="89"/>
@@ -46579,7 +46643,7 @@
       <c r="AB90" s="89"/>
       <c r="AC90" s="89"/>
       <c r="AD90" s="88" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE90" s="89"/>
       <c r="AF90" s="89"/>
@@ -46608,7 +46672,7 @@
         <v>5</v>
       </c>
       <c r="D91" s="88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E91" s="89"/>
       <c r="F91" s="89"/>
@@ -46642,7 +46706,7 @@
       <c r="AB91" s="89"/>
       <c r="AC91" s="89"/>
       <c r="AD91" s="88" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE91" s="89"/>
       <c r="AF91" s="89"/>
@@ -46671,7 +46735,7 @@
         <v>6</v>
       </c>
       <c r="D92" s="220" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E92" s="218"/>
       <c r="F92" s="218"/>
@@ -46705,7 +46769,7 @@
       <c r="AB92" s="218"/>
       <c r="AC92" s="218"/>
       <c r="AD92" s="220" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AE92" s="218"/>
       <c r="AF92" s="218"/>
@@ -46795,7 +46859,7 @@
         <v>8</v>
       </c>
       <c r="D94" s="88" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E94" s="89"/>
       <c r="F94" s="89"/>
@@ -47005,7 +47069,7 @@
       <c r="A98" s="20"/>
       <c r="B98" s="28"/>
       <c r="C98" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AM98" s="22"/>
       <c r="AN98" s="22"/>
@@ -47093,7 +47157,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E100" s="89"/>
       <c r="F100" s="89"/>
@@ -47154,7 +47218,7 @@
         <v>2</v>
       </c>
       <c r="D101" s="88" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E101" s="89"/>
       <c r="F101" s="89"/>
@@ -47188,7 +47252,7 @@
       <c r="AB101" s="89"/>
       <c r="AC101" s="89"/>
       <c r="AD101" s="79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AE101" s="89"/>
       <c r="AF101" s="89"/>
@@ -47217,7 +47281,7 @@
         <v>3</v>
       </c>
       <c r="D102" s="88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E102" s="89"/>
       <c r="F102" s="89"/>
@@ -47251,7 +47315,7 @@
       <c r="AB102" s="89"/>
       <c r="AC102" s="89"/>
       <c r="AD102" s="88" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AE102" s="89"/>
       <c r="AF102" s="89"/>
@@ -47280,7 +47344,7 @@
         <v>4</v>
       </c>
       <c r="D103" s="88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E103" s="89"/>
       <c r="F103" s="89"/>
@@ -47314,7 +47378,7 @@
       <c r="AB103" s="89"/>
       <c r="AC103" s="89"/>
       <c r="AD103" s="88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AE103" s="89"/>
       <c r="AF103" s="89"/>
@@ -47342,7 +47406,7 @@
         <v>5</v>
       </c>
       <c r="D104" s="88" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E104" s="89"/>
       <c r="F104" s="89"/>
@@ -47376,7 +47440,7 @@
       <c r="AB104" s="89"/>
       <c r="AC104" s="89"/>
       <c r="AD104" s="88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AE104" s="89"/>
       <c r="AF104" s="89"/>
@@ -47466,7 +47530,7 @@
         <v>8</v>
       </c>
       <c r="D106" s="88" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E106" s="89"/>
       <c r="F106" s="89"/>
@@ -47631,7 +47695,7 @@
       <c r="A110" s="20"/>
       <c r="B110" s="28"/>
       <c r="C110" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AM110" s="22"/>
       <c r="AN110" s="22"/>
@@ -47718,7 +47782,7 @@
         <v>1</v>
       </c>
       <c r="D112" s="88" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E112" s="89"/>
       <c r="F112" s="89"/>
@@ -47777,7 +47841,7 @@
         <v>2</v>
       </c>
       <c r="D113" s="88" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E113" s="89"/>
       <c r="F113" s="89"/>
@@ -47836,7 +47900,7 @@
         <v>3</v>
       </c>
       <c r="D114" s="96" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E114" s="97"/>
       <c r="F114" s="97"/>
@@ -47895,7 +47959,7 @@
     <row r="116" spans="1:49" ht="13.5" customHeight="1">
       <c r="A116" s="20"/>
       <c r="C116" s="18" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D116" s="27"/>
       <c r="E116" s="27"/>
@@ -48009,7 +48073,7 @@
         <v>1</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E118" s="22"/>
       <c r="F118" s="22"/>
@@ -48066,7 +48130,7 @@
         <v>2</v>
       </c>
       <c r="D119" s="150" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E119" s="151"/>
       <c r="F119" s="151"/>
@@ -48123,7 +48187,7 @@
         <v>3</v>
       </c>
       <c r="D120" s="150" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E120" s="151"/>
       <c r="F120" s="151"/>
@@ -48179,7 +48243,7 @@
         <v>4</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E121" s="22"/>
       <c r="F121" s="22"/>
@@ -48235,7 +48299,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="150" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E122" s="151"/>
       <c r="F122" s="151"/>
@@ -48291,7 +48355,7 @@
         <v>6</v>
       </c>
       <c r="D123" s="120" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E123" s="121"/>
       <c r="F123" s="121"/>
@@ -48407,7 +48471,7 @@
       <c r="Y125" s="340"/>
       <c r="Z125" s="341"/>
       <c r="AA125" s="345" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB125" s="441"/>
       <c r="AC125" s="441"/>
@@ -48425,7 +48489,7 @@
       </c>
       <c r="AN125" s="335"/>
       <c r="AO125" s="347" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AP125" s="348"/>
       <c r="AQ125" s="349"/>
@@ -48525,7 +48589,7 @@
       <c r="Y127" s="351"/>
       <c r="Z127" s="352"/>
       <c r="AA127" s="353" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB127" s="354"/>
       <c r="AC127" s="354"/>
@@ -48541,7 +48605,7 @@
       <c r="AK127" s="357"/>
       <c r="AL127" s="358"/>
       <c r="AM127" s="353" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN127" s="354"/>
       <c r="AO127" s="354"/>
@@ -48623,7 +48687,7 @@
     <row r="133" spans="1:49" ht="13.5" customHeight="1">
       <c r="A133" s="20"/>
       <c r="C133" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D133" s="22"/>
       <c r="E133" s="22"/>
@@ -48641,7 +48705,7 @@
     <row r="134" spans="1:49" ht="13.5" customHeight="1">
       <c r="A134" s="20"/>
       <c r="D134" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E134" s="22"/>
       <c r="F134" s="22"/>
@@ -48658,7 +48722,7 @@
     <row r="135" spans="1:49" ht="13.5" customHeight="1">
       <c r="A135" s="20"/>
       <c r="D135" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E135" s="22"/>
       <c r="F135" s="22"/>
@@ -48698,7 +48762,7 @@
     <row r="137" spans="1:49" ht="13.5" customHeight="1">
       <c r="A137" s="20"/>
       <c r="C137" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D137" s="22"/>
       <c r="E137" s="22"/>
@@ -48720,7 +48784,7 @@
     <row r="138" spans="1:49" ht="13.5" customHeight="1">
       <c r="A138" s="20"/>
       <c r="D138" s="22" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E138" s="22"/>
       <c r="F138" s="22"/>
@@ -48752,7 +48816,7 @@
     <row r="139" spans="1:49" ht="13.5" customHeight="1">
       <c r="A139" s="20"/>
       <c r="D139" s="22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E139" s="22"/>
       <c r="F139" s="22"/>
@@ -48814,7 +48878,7 @@
     <row r="141" spans="1:49" ht="13.5" customHeight="1">
       <c r="A141" s="20"/>
       <c r="C141" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D141" s="22"/>
       <c r="E141" s="22"/>
@@ -48847,7 +48911,7 @@
     <row r="142" spans="1:49" ht="13.5" customHeight="1">
       <c r="A142" s="20"/>
       <c r="D142" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E142" s="22"/>
       <c r="F142" s="22"/>
@@ -48879,7 +48943,7 @@
     <row r="143" spans="1:49" ht="13.5" customHeight="1">
       <c r="A143" s="20"/>
       <c r="D143" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E143" s="22"/>
       <c r="F143" s="22"/>
@@ -48911,7 +48975,7 @@
     <row r="144" spans="1:49" ht="13.5" customHeight="1">
       <c r="A144" s="20"/>
       <c r="D144" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E144" s="22"/>
       <c r="F144" s="22"/>
@@ -48943,7 +49007,7 @@
     <row r="145" spans="1:50" ht="13.5" customHeight="1">
       <c r="A145" s="20"/>
       <c r="D145" s="18" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E145" s="22"/>
       <c r="F145" s="22"/>
@@ -48975,7 +49039,7 @@
     <row r="146" spans="1:50" ht="13.5" customHeight="1">
       <c r="A146" s="20"/>
       <c r="D146" s="18" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E146" s="22"/>
       <c r="F146" s="22"/>
@@ -49021,7 +49085,7 @@
     <row r="148" spans="1:50" ht="13.5" customHeight="1">
       <c r="A148" s="20"/>
       <c r="C148" s="18" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D148" s="22"/>
       <c r="E148" s="22"/>
@@ -49052,7 +49116,7 @@
     <row r="149" spans="1:50" ht="13.5" customHeight="1">
       <c r="A149" s="20"/>
       <c r="D149" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E149" s="22"/>
       <c r="F149" s="22"/>
@@ -49084,7 +49148,7 @@
     <row r="150" spans="1:50" ht="13.5" customHeight="1">
       <c r="A150" s="20"/>
       <c r="D150" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E150" s="22"/>
       <c r="F150" s="22"/>
@@ -49116,9 +49180,7 @@
     </row>
     <row r="151" spans="1:50" ht="13.5" customHeight="1">
       <c r="A151" s="20"/>
-      <c r="D151" s="22" t="s">
-        <v>93</v>
-      </c>
+      <c r="D151" s="22"/>
       <c r="E151" s="22"/>
       <c r="F151" s="22"/>
       <c r="G151" s="22"/>
@@ -49165,7 +49227,7 @@
     <row r="153" spans="1:50" ht="13.5" customHeight="1">
       <c r="A153" s="20"/>
       <c r="C153" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D153" s="22"/>
       <c r="E153" s="22"/>
@@ -49192,7 +49254,7 @@
       <c r="A154" s="20"/>
       <c r="B154" s="22"/>
       <c r="D154" s="22" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E154" s="22"/>
       <c r="F154" s="22"/>
@@ -49282,7 +49344,7 @@
     <row r="157" spans="1:50" ht="13.5" customHeight="1">
       <c r="A157" s="22"/>
       <c r="C157" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D157" s="22"/>
       <c r="E157" s="22"/>
@@ -49313,7 +49375,7 @@
     <row r="158" spans="1:50" ht="13.5" customHeight="1">
       <c r="A158" s="20"/>
       <c r="D158" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E158" s="22"/>
       <c r="F158" s="22"/>
@@ -49404,7 +49466,7 @@
     <row r="161" spans="1:49" ht="13.5" customHeight="1">
       <c r="A161" s="20"/>
       <c r="C161" s="18" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D161" s="22"/>
       <c r="E161" s="22"/>
@@ -49435,7 +49497,7 @@
     <row r="162" spans="1:49" ht="13.5" customHeight="1">
       <c r="A162" s="20"/>
       <c r="D162" s="22" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E162" s="22"/>
       <c r="F162" s="22"/>
@@ -49673,7 +49735,7 @@
     <row r="169" spans="1:49" ht="13.5" customHeight="1">
       <c r="A169" s="20"/>
       <c r="D169" s="181" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E169" s="108"/>
       <c r="F169" s="22"/>
@@ -49712,7 +49774,7 @@
     <row r="170" spans="1:49" ht="13.5" customHeight="1">
       <c r="A170" s="20"/>
       <c r="C170" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D170" s="22"/>
       <c r="E170" s="108"/>
@@ -49747,7 +49809,7 @@
     <row r="171" spans="1:49" ht="13.5" customHeight="1">
       <c r="A171" s="20"/>
       <c r="D171" s="181" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E171" s="108"/>
       <c r="P171" s="22"/>
@@ -49788,7 +49850,7 @@
     <row r="172" spans="1:49" ht="13.5" customHeight="1">
       <c r="A172" s="20"/>
       <c r="C172" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D172" s="22"/>
       <c r="E172" s="108"/>
@@ -49837,7 +49899,7 @@
     <row r="173" spans="1:49" ht="13.5" customHeight="1">
       <c r="A173" s="20"/>
       <c r="D173" s="181" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E173" s="108"/>
       <c r="F173" s="22"/>
@@ -49883,7 +49945,7 @@
     </row>
     <row r="174" spans="1:49" ht="13.5" customHeight="1">
       <c r="C174" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D174" s="22"/>
       <c r="E174" s="108"/>
@@ -49930,7 +49992,7 @@
     </row>
     <row r="175" spans="1:49" ht="13.5" customHeight="1">
       <c r="D175" s="181" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E175" s="108"/>
       <c r="F175" s="22"/>
@@ -49976,7 +50038,7 @@
     </row>
     <row r="176" spans="1:49" ht="13.5" customHeight="1">
       <c r="C176" s="18" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D176" s="22"/>
       <c r="E176" s="108"/>
@@ -50023,7 +50085,7 @@
     </row>
     <row r="177" spans="1:49" ht="13.5" customHeight="1" thickBot="1">
       <c r="D177" s="181" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E177" s="108"/>
       <c r="F177" s="22"/>
@@ -50059,7 +50121,7 @@
     </row>
     <row r="178" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="C178" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D178" s="22"/>
       <c r="E178" s="108"/>
@@ -50073,7 +50135,7 @@
     </row>
     <row r="179" spans="1:49" ht="13.5" customHeight="1">
       <c r="D179" s="181" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E179" s="134"/>
       <c r="F179" s="22"/>
@@ -50088,7 +50150,7 @@
       <c r="A180" s="124"/>
       <c r="B180" s="124"/>
       <c r="C180" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D180" s="22"/>
       <c r="E180" s="108"/>
@@ -50104,7 +50166,7 @@
       <c r="A181" s="124"/>
       <c r="B181" s="124"/>
       <c r="D181" s="181" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E181" s="134"/>
       <c r="F181" s="22"/>
@@ -50117,7 +50179,7 @@
     </row>
     <row r="182" spans="1:49" ht="13.5" customHeight="1">
       <c r="C182" s="18" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D182" s="22"/>
       <c r="F182" s="22"/>
@@ -50130,7 +50192,7 @@
     </row>
     <row r="183" spans="1:49" ht="13.5" customHeight="1">
       <c r="D183" s="181" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F183" s="22"/>
       <c r="G183" s="22"/>
@@ -50290,7 +50352,7 @@
       <c r="Y1" s="340"/>
       <c r="Z1" s="341"/>
       <c r="AA1" s="345" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB1" s="325"/>
       <c r="AC1" s="325"/>
@@ -50308,7 +50370,7 @@
       </c>
       <c r="AN1" s="335"/>
       <c r="AO1" s="347" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AP1" s="348"/>
       <c r="AQ1" s="349"/>
@@ -50424,7 +50486,7 @@
       <c r="Y3" s="351"/>
       <c r="Z3" s="352"/>
       <c r="AA3" s="353" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB3" s="354"/>
       <c r="AC3" s="354"/>
@@ -50440,7 +50502,7 @@
       <c r="AK3" s="357"/>
       <c r="AL3" s="358"/>
       <c r="AM3" s="353" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN3" s="354"/>
       <c r="AO3" s="354"/>
@@ -50585,7 +50647,7 @@
       <c r="A6" s="20"/>
       <c r="B6" s="27"/>
       <c r="C6" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -50903,7 +50965,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G11" s="80"/>
       <c r="H11" s="80"/>
@@ -50913,7 +50975,7 @@
       <c r="L11" s="81"/>
       <c r="M11" s="82"/>
       <c r="N11" s="80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O11" s="82"/>
       <c r="P11" s="128"/>
@@ -50939,7 +51001,7 @@
       <c r="AJ11" s="128"/>
       <c r="AK11" s="129"/>
       <c r="AL11" s="130" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM11" s="128"/>
       <c r="AN11" s="128"/>
@@ -50970,7 +51032,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G12" s="89"/>
       <c r="H12" s="89"/>
@@ -50980,7 +51042,7 @@
       <c r="L12" s="90"/>
       <c r="M12" s="91"/>
       <c r="N12" s="89" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O12" s="91"/>
       <c r="P12" s="151"/>
@@ -51006,7 +51068,7 @@
       <c r="AJ12" s="151"/>
       <c r="AK12" s="152"/>
       <c r="AL12" s="150" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM12" s="151"/>
       <c r="AN12" s="151"/>
@@ -51037,7 +51099,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G13" s="89"/>
       <c r="H13" s="89"/>
@@ -51047,7 +51109,7 @@
       <c r="L13" s="90"/>
       <c r="M13" s="91"/>
       <c r="N13" s="89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O13" s="91"/>
       <c r="P13" s="151"/>
@@ -51073,7 +51135,7 @@
       <c r="AJ13" s="151"/>
       <c r="AK13" s="152"/>
       <c r="AL13" s="150" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM13" s="151"/>
       <c r="AN13" s="151"/>
@@ -51104,7 +51166,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G14" s="89"/>
       <c r="H14" s="89"/>
@@ -51114,7 +51176,7 @@
       <c r="L14" s="90"/>
       <c r="M14" s="91"/>
       <c r="N14" s="89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O14" s="91"/>
       <c r="P14" s="151"/>
@@ -51140,7 +51202,7 @@
       <c r="AJ14" s="151"/>
       <c r="AK14" s="152"/>
       <c r="AL14" s="150" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM14" s="151"/>
       <c r="AN14" s="151"/>
@@ -51171,7 +51233,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="159" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G15" s="160"/>
       <c r="H15" s="160"/>
@@ -51181,7 +51243,7 @@
       <c r="L15" s="161"/>
       <c r="M15" s="162"/>
       <c r="N15" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O15" s="162"/>
       <c r="P15" s="151"/>
@@ -51207,7 +51269,7 @@
       <c r="AJ15" s="151"/>
       <c r="AK15" s="152"/>
       <c r="AL15" s="150" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM15" s="151"/>
       <c r="AN15" s="151"/>
@@ -51238,7 +51300,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="159" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G16" s="160"/>
       <c r="H16" s="160"/>
@@ -51248,7 +51310,7 @@
       <c r="L16" s="161"/>
       <c r="M16" s="162"/>
       <c r="N16" s="160" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O16" s="162"/>
       <c r="P16" s="151"/>
@@ -51274,7 +51336,7 @@
       <c r="AJ16" s="151"/>
       <c r="AK16" s="152"/>
       <c r="AL16" s="150" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM16" s="151"/>
       <c r="AN16" s="151"/>
@@ -51305,7 +51367,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="159" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G17" s="160"/>
       <c r="H17" s="160"/>
@@ -51315,7 +51377,7 @@
       <c r="L17" s="161"/>
       <c r="M17" s="162"/>
       <c r="N17" s="160" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O17" s="162"/>
       <c r="P17" s="151"/>
@@ -51341,7 +51403,7 @@
       <c r="AJ17" s="151"/>
       <c r="AK17" s="152"/>
       <c r="AL17" s="150" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM17" s="151"/>
       <c r="AN17" s="151"/>
@@ -51372,7 +51434,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G18" s="97"/>
       <c r="H18" s="97"/>
@@ -51382,7 +51444,7 @@
       <c r="L18" s="98"/>
       <c r="M18" s="99"/>
       <c r="N18" s="97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O18" s="99"/>
       <c r="P18" s="111"/>
@@ -51408,7 +51470,7 @@
       <c r="AJ18" s="111"/>
       <c r="AK18" s="112"/>
       <c r="AL18" s="113" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM18" s="133"/>
       <c r="AN18" s="111"/>
@@ -51554,7 +51616,7 @@
       <c r="C21" s="18"/>
       <c r="D21" s="114"/>
       <c r="E21" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -51689,7 +51751,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G23" s="128"/>
       <c r="H23" s="128"/>
@@ -51699,7 +51761,7 @@
       <c r="L23" s="128"/>
       <c r="M23" s="129"/>
       <c r="N23" s="80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O23" s="128"/>
       <c r="P23" s="128"/>
@@ -51725,7 +51787,7 @@
       <c r="AJ23" s="128"/>
       <c r="AK23" s="129"/>
       <c r="AL23" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM23" s="128"/>
       <c r="AN23" s="131"/>
@@ -51756,7 +51818,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G24" s="89"/>
       <c r="H24" s="89"/>
@@ -51766,7 +51828,7 @@
       <c r="L24" s="151"/>
       <c r="M24" s="152"/>
       <c r="N24" s="88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O24" s="151"/>
       <c r="P24" s="151"/>
@@ -51823,7 +51885,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G25" s="89"/>
       <c r="H25" s="89"/>
@@ -51833,7 +51895,7 @@
       <c r="L25" s="151"/>
       <c r="M25" s="152"/>
       <c r="N25" s="88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O25" s="151"/>
       <c r="P25" s="151"/>
@@ -51851,7 +51913,7 @@
       <c r="AB25" s="151"/>
       <c r="AC25" s="152"/>
       <c r="AD25" s="88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AE25" s="151"/>
       <c r="AF25" s="151"/>
@@ -51861,7 +51923,7 @@
       <c r="AJ25" s="151"/>
       <c r="AK25" s="152"/>
       <c r="AL25" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM25" s="151"/>
       <c r="AN25" s="177"/>
@@ -51892,7 +51954,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G26" s="89"/>
       <c r="H26" s="89"/>
@@ -51902,7 +51964,7 @@
       <c r="L26" s="151"/>
       <c r="M26" s="152"/>
       <c r="N26" s="88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O26" s="151"/>
       <c r="P26" s="151"/>
@@ -51928,7 +51990,7 @@
       <c r="AJ26" s="151"/>
       <c r="AK26" s="152"/>
       <c r="AL26" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM26" s="151"/>
       <c r="AN26" s="177"/>
@@ -51959,7 +52021,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="159" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G27" s="89"/>
       <c r="H27" s="89"/>
@@ -51969,7 +52031,7 @@
       <c r="L27" s="151"/>
       <c r="M27" s="152"/>
       <c r="N27" s="159" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O27" s="151"/>
       <c r="P27" s="151"/>
@@ -51995,7 +52057,7 @@
       <c r="AJ27" s="151"/>
       <c r="AK27" s="152"/>
       <c r="AL27" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM27" s="151"/>
       <c r="AN27" s="177"/>
@@ -52026,7 +52088,7 @@
         <v>6</v>
       </c>
       <c r="F28" s="159" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G28" s="89"/>
       <c r="H28" s="89"/>
@@ -52036,7 +52098,7 @@
       <c r="L28" s="151"/>
       <c r="M28" s="152"/>
       <c r="N28" s="159" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O28" s="151"/>
       <c r="P28" s="151"/>
@@ -52062,7 +52124,7 @@
       <c r="AJ28" s="151"/>
       <c r="AK28" s="152"/>
       <c r="AL28" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM28" s="151"/>
       <c r="AN28" s="177"/>
@@ -52093,7 +52155,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G29" s="89"/>
       <c r="H29" s="89"/>
@@ -52103,7 +52165,7 @@
       <c r="L29" s="151"/>
       <c r="M29" s="152"/>
       <c r="N29" s="88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O29" s="151"/>
       <c r="P29" s="151"/>
@@ -52129,7 +52191,7 @@
       <c r="AJ29" s="151"/>
       <c r="AK29" s="152"/>
       <c r="AL29" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM29" s="151"/>
       <c r="AN29" s="177"/>
@@ -52160,7 +52222,7 @@
         <v>8</v>
       </c>
       <c r="F30" s="168" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G30" s="169"/>
       <c r="H30" s="169"/>
@@ -52170,7 +52232,7 @@
       <c r="L30" s="121"/>
       <c r="M30" s="121"/>
       <c r="N30" s="168" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O30" s="121"/>
       <c r="P30" s="121"/>
@@ -52188,7 +52250,7 @@
       <c r="AB30" s="121"/>
       <c r="AC30" s="112"/>
       <c r="AD30" s="121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AE30" s="201"/>
       <c r="AF30" s="121"/>
@@ -52198,7 +52260,7 @@
       <c r="AJ30" s="121"/>
       <c r="AK30" s="112"/>
       <c r="AL30" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM30" s="121"/>
       <c r="AN30" s="122"/>
@@ -52285,7 +52347,7 @@
       <c r="C32" s="18"/>
       <c r="D32" s="114"/>
       <c r="E32" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
@@ -52420,7 +52482,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="88" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G34" s="128"/>
       <c r="H34" s="128"/>
@@ -52454,7 +52516,7 @@
       <c r="AJ34" s="128"/>
       <c r="AK34" s="129"/>
       <c r="AL34" s="130" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM34" s="128"/>
       <c r="AN34" s="131"/>
@@ -52485,7 +52547,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="88" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G35" s="89"/>
       <c r="H35" s="89"/>
@@ -52519,7 +52581,7 @@
       <c r="AJ35" s="151"/>
       <c r="AK35" s="152"/>
       <c r="AL35" s="173" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM35" s="151"/>
       <c r="AN35" s="177"/>
@@ -52550,7 +52612,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G36" s="89"/>
       <c r="H36" s="89"/>
@@ -52584,7 +52646,7 @@
       <c r="AJ36" s="151"/>
       <c r="AK36" s="152"/>
       <c r="AL36" s="151" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM36" s="151"/>
       <c r="AN36" s="177"/>
@@ -52615,7 +52677,7 @@
         <v>4</v>
       </c>
       <c r="F37" s="168" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G37" s="169"/>
       <c r="H37" s="169"/>
@@ -52649,7 +52711,7 @@
       <c r="AJ37" s="121"/>
       <c r="AK37" s="122"/>
       <c r="AL37" s="151" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM37" s="121"/>
       <c r="AN37" s="122"/>
@@ -52828,7 +52890,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G41" s="111"/>
       <c r="H41" s="111"/>
@@ -52838,7 +52900,7 @@
       <c r="L41" s="111"/>
       <c r="M41" s="112"/>
       <c r="N41" s="113" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O41" s="111"/>
       <c r="P41" s="111"/>
@@ -52864,7 +52926,7 @@
       <c r="AJ41" s="111"/>
       <c r="AK41" s="112"/>
       <c r="AL41" s="111" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AM41" s="111"/>
       <c r="AN41" s="111"/>
@@ -52893,7 +52955,7 @@
       <c r="D42" s="22"/>
       <c r="E42" s="172"/>
       <c r="F42" s="88" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G42" s="89"/>
       <c r="H42" s="89"/>
@@ -52903,7 +52965,7 @@
       <c r="L42" s="151"/>
       <c r="M42" s="152"/>
       <c r="N42" s="113" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O42" s="151"/>
       <c r="P42" s="151"/>
@@ -52929,7 +52991,7 @@
       <c r="AJ42" s="151"/>
       <c r="AK42" s="152"/>
       <c r="AL42" s="173" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AM42" s="151"/>
       <c r="AN42" s="177"/>
@@ -52958,7 +53020,7 @@
       <c r="D43" s="22"/>
       <c r="E43" s="172"/>
       <c r="F43" s="88" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G43" s="89"/>
       <c r="H43" s="89"/>
@@ -52968,7 +53030,7 @@
       <c r="L43" s="151"/>
       <c r="M43" s="152"/>
       <c r="N43" s="113" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O43" s="151"/>
       <c r="P43" s="151"/>
@@ -52994,7 +53056,7 @@
       <c r="AJ43" s="151"/>
       <c r="AK43" s="152"/>
       <c r="AL43" s="173" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM43" s="151"/>
       <c r="AN43" s="177"/>
@@ -53023,7 +53085,7 @@
       <c r="D44" s="22"/>
       <c r="E44" s="110"/>
       <c r="F44" s="96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G44" s="97"/>
       <c r="H44" s="97"/>
@@ -53033,7 +53095,7 @@
       <c r="L44" s="111"/>
       <c r="M44" s="112"/>
       <c r="N44" s="113" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O44" s="111"/>
       <c r="P44" s="111"/>
@@ -53059,7 +53121,7 @@
       <c r="AJ44" s="111"/>
       <c r="AK44" s="112"/>
       <c r="AL44" s="173" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM44" s="111"/>
       <c r="AN44" s="119"/>
@@ -53127,8 +53189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B092745-76AF-4663-989F-26BF92C8D503}">
   <dimension ref="A1:BF33"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="113" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:AW3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="113" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1"/>
@@ -53176,7 +53238,7 @@
       <c r="Y1" s="340"/>
       <c r="Z1" s="341"/>
       <c r="AA1" s="345" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB1" s="325"/>
       <c r="AC1" s="325"/>
@@ -53194,7 +53256,7 @@
       </c>
       <c r="AN1" s="335"/>
       <c r="AO1" s="347" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AP1" s="348"/>
       <c r="AQ1" s="349"/>
@@ -53310,7 +53372,7 @@
       <c r="Y3" s="351"/>
       <c r="Z3" s="352"/>
       <c r="AA3" s="353" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB3" s="354"/>
       <c r="AC3" s="354"/>
@@ -53326,7 +53388,7 @@
       <c r="AK3" s="357"/>
       <c r="AL3" s="358"/>
       <c r="AM3" s="353" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN3" s="354"/>
       <c r="AO3" s="354"/>
@@ -53471,7 +53533,7 @@
       <c r="A6" s="20"/>
       <c r="B6" s="27"/>
       <c r="C6" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -53533,7 +53595,7 @@
       <c r="B7" s="27"/>
       <c r="C7" s="18"/>
       <c r="D7" s="114" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
@@ -53595,7 +53657,7 @@
       <c r="C8" s="18"/>
       <c r="D8" s="114"/>
       <c r="E8" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
@@ -53656,7 +53718,7 @@
       <c r="C9" s="18"/>
       <c r="D9" s="114"/>
       <c r="E9" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -53775,7 +53837,7 @@
       <c r="B11" s="27"/>
       <c r="C11" s="18"/>
       <c r="D11" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E11" s="135"/>
       <c r="F11" s="22"/>
@@ -53837,7 +53899,7 @@
       <c r="C12" s="18"/>
       <c r="D12" s="22"/>
       <c r="E12" s="135" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
@@ -53898,7 +53960,7 @@
       <c r="C13" s="18"/>
       <c r="D13" s="22"/>
       <c r="E13" s="135" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -54073,7 +54135,7 @@
     </row>
     <row r="24" spans="5:47" ht="13.5" customHeight="1">
       <c r="E24" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="5:47" ht="13.5" customHeight="1">
@@ -54138,7 +54200,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G26" s="128"/>
       <c r="H26" s="128"/>
@@ -54148,7 +54210,7 @@
       <c r="L26" s="128"/>
       <c r="M26" s="129"/>
       <c r="N26" s="80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O26" s="128"/>
       <c r="P26" s="128"/>
@@ -54166,7 +54228,7 @@
       <c r="AB26" s="128"/>
       <c r="AC26" s="129"/>
       <c r="AD26" s="128" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AE26" s="128"/>
       <c r="AF26" s="128"/>
@@ -54176,7 +54238,7 @@
       <c r="AJ26" s="128"/>
       <c r="AK26" s="129"/>
       <c r="AL26" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM26" s="128"/>
       <c r="AN26" s="131"/>
@@ -54193,7 +54255,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G27" s="89"/>
       <c r="H27" s="89"/>
@@ -54203,7 +54265,7 @@
       <c r="L27" s="151"/>
       <c r="M27" s="152"/>
       <c r="N27" s="88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O27" s="151"/>
       <c r="P27" s="151"/>
@@ -54221,7 +54283,7 @@
       <c r="AB27" s="151"/>
       <c r="AC27" s="152"/>
       <c r="AD27" s="88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE27" s="151"/>
       <c r="AF27" s="151"/>
@@ -54248,7 +54310,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G28" s="89"/>
       <c r="H28" s="89"/>
@@ -54258,7 +54320,7 @@
       <c r="L28" s="151"/>
       <c r="M28" s="152"/>
       <c r="N28" s="88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O28" s="151"/>
       <c r="P28" s="151"/>
@@ -54276,7 +54338,7 @@
       <c r="AB28" s="151"/>
       <c r="AC28" s="152"/>
       <c r="AD28" s="88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AE28" s="151"/>
       <c r="AF28" s="151"/>
@@ -54286,7 +54348,7 @@
       <c r="AJ28" s="151"/>
       <c r="AK28" s="152"/>
       <c r="AL28" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM28" s="151"/>
       <c r="AN28" s="177"/>
@@ -54303,7 +54365,7 @@
         <v>4</v>
       </c>
       <c r="F29" s="88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G29" s="89"/>
       <c r="H29" s="89"/>
@@ -54313,7 +54375,7 @@
       <c r="L29" s="151"/>
       <c r="M29" s="152"/>
       <c r="N29" s="88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O29" s="151"/>
       <c r="P29" s="151"/>
@@ -54331,7 +54393,7 @@
       <c r="AB29" s="151"/>
       <c r="AC29" s="152"/>
       <c r="AD29" s="88" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AE29" s="151"/>
       <c r="AF29" s="151"/>
@@ -54341,7 +54403,7 @@
       <c r="AJ29" s="151"/>
       <c r="AK29" s="152"/>
       <c r="AL29" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM29" s="151"/>
       <c r="AN29" s="177"/>
@@ -54358,7 +54420,7 @@
         <v>5</v>
       </c>
       <c r="F30" s="159" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G30" s="89"/>
       <c r="H30" s="89"/>
@@ -54368,7 +54430,7 @@
       <c r="L30" s="151"/>
       <c r="M30" s="152"/>
       <c r="N30" s="159" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O30" s="151"/>
       <c r="P30" s="151"/>
@@ -54386,7 +54448,7 @@
       <c r="AB30" s="151"/>
       <c r="AC30" s="152"/>
       <c r="AD30" s="88" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AE30" s="151"/>
       <c r="AF30" s="151"/>
@@ -54396,7 +54458,7 @@
       <c r="AJ30" s="151"/>
       <c r="AK30" s="152"/>
       <c r="AL30" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM30" s="151"/>
       <c r="AN30" s="177"/>
@@ -54413,7 +54475,7 @@
         <v>6</v>
       </c>
       <c r="F31" s="159" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G31" s="89"/>
       <c r="H31" s="89"/>
@@ -54423,7 +54485,7 @@
       <c r="L31" s="151"/>
       <c r="M31" s="152"/>
       <c r="N31" s="159" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O31" s="151"/>
       <c r="P31" s="151"/>
@@ -54441,7 +54503,7 @@
       <c r="AB31" s="151"/>
       <c r="AC31" s="152"/>
       <c r="AD31" s="88" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AE31" s="151"/>
       <c r="AF31" s="151"/>
@@ -54451,7 +54513,7 @@
       <c r="AJ31" s="151"/>
       <c r="AK31" s="152"/>
       <c r="AL31" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM31" s="151"/>
       <c r="AN31" s="177"/>
@@ -54468,7 +54530,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G32" s="89"/>
       <c r="H32" s="89"/>
@@ -54478,7 +54540,7 @@
       <c r="L32" s="151"/>
       <c r="M32" s="152"/>
       <c r="N32" s="88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O32" s="151"/>
       <c r="P32" s="151"/>
@@ -54496,7 +54558,7 @@
       <c r="AB32" s="151"/>
       <c r="AC32" s="152"/>
       <c r="AD32" s="88" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AE32" s="151"/>
       <c r="AF32" s="151"/>
@@ -54506,7 +54568,7 @@
       <c r="AJ32" s="151"/>
       <c r="AK32" s="152"/>
       <c r="AL32" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM32" s="151"/>
       <c r="AN32" s="177"/>
@@ -54523,7 +54585,7 @@
         <v>8</v>
       </c>
       <c r="F33" s="168" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G33" s="169"/>
       <c r="H33" s="169"/>
@@ -54533,7 +54595,7 @@
       <c r="L33" s="121"/>
       <c r="M33" s="121"/>
       <c r="N33" s="168" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O33" s="121"/>
       <c r="P33" s="121"/>
@@ -54551,7 +54613,7 @@
       <c r="AB33" s="121"/>
       <c r="AC33" s="112"/>
       <c r="AD33" s="121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AE33" s="201"/>
       <c r="AF33" s="121"/>
@@ -54561,7 +54623,7 @@
       <c r="AJ33" s="121"/>
       <c r="AK33" s="112"/>
       <c r="AL33" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM33" s="121"/>
       <c r="AN33" s="122"/>
@@ -54605,7 +54667,7 @@
   <dimension ref="A1:BF23"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="113" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1"/>
@@ -54653,7 +54715,7 @@
       <c r="Y1" s="340"/>
       <c r="Z1" s="341"/>
       <c r="AA1" s="345" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB1" s="325"/>
       <c r="AC1" s="325"/>
@@ -54671,7 +54733,7 @@
       </c>
       <c r="AN1" s="335"/>
       <c r="AO1" s="347" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AP1" s="348"/>
       <c r="AQ1" s="349"/>
@@ -54787,7 +54849,7 @@
       <c r="Y3" s="351"/>
       <c r="Z3" s="352"/>
       <c r="AA3" s="353" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB3" s="354"/>
       <c r="AC3" s="354"/>
@@ -54803,7 +54865,7 @@
       <c r="AK3" s="357"/>
       <c r="AL3" s="358"/>
       <c r="AM3" s="353" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN3" s="354"/>
       <c r="AO3" s="354"/>
@@ -54948,7 +55010,7 @@
       <c r="A6" s="20"/>
       <c r="B6" s="27"/>
       <c r="C6" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -55009,8 +55071,8 @@
       <c r="A7" s="20"/>
       <c r="B7" s="27"/>
       <c r="C7" s="18"/>
-      <c r="D7" s="114" t="s">
-        <v>201</v>
+      <c r="D7" s="22" t="s">
+        <v>250</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
@@ -55070,10 +55132,9 @@
       <c r="A8" s="20"/>
       <c r="B8" s="27"/>
       <c r="C8" s="18"/>
-      <c r="D8" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="135"/>
+      <c r="E8" s="135" t="s">
+        <v>251</v>
+      </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
@@ -55132,7 +55193,9 @@
       <c r="B9" s="27"/>
       <c r="C9" s="18"/>
       <c r="D9" s="114"/>
-      <c r="E9" s="22"/>
+      <c r="E9" s="135" t="s">
+        <v>252</v>
+      </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
@@ -55190,11 +55253,8 @@
       <c r="A10" s="20"/>
       <c r="B10" s="27"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="114"/>
       <c r="E10" s="22"/>
-      <c r="F10" s="22" t="s">
-        <v>203</v>
-      </c>
+      <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
@@ -55251,19 +55311,6 @@
       <c r="A11" s="20"/>
       <c r="B11" s="27"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
@@ -55312,16 +55359,6 @@
       <c r="A12" s="20"/>
       <c r="B12" s="27"/>
       <c r="C12" s="18"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
@@ -55370,17 +55407,6 @@
       <c r="A13" s="20"/>
       <c r="B13" s="27"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
@@ -55665,8 +55691,10 @@
       <c r="A18" s="20"/>
       <c r="B18" s="27"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="135"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -55724,8 +55752,10 @@
       <c r="A19" s="20"/>
       <c r="B19" s="27"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="135" t="s">
+        <v>254</v>
+      </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -55783,8 +55813,10 @@
       <c r="A20" s="20"/>
       <c r="B20" s="27"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="135" t="s">
+        <v>255</v>
+      </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -56037,6 +56069,7 @@
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="30" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -56044,8 +56077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAD9D2C-0F88-4A36-83E0-12C812916138}">
   <dimension ref="A1:BF75"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A55" zoomScaleNormal="113" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AU23" sqref="AU23"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A58" zoomScaleNormal="113" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AS21" sqref="AS21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1"/>
@@ -56093,7 +56126,7 @@
       <c r="Y1" s="340"/>
       <c r="Z1" s="341"/>
       <c r="AA1" s="345" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB1" s="325"/>
       <c r="AC1" s="325"/>
@@ -56111,7 +56144,7 @@
       </c>
       <c r="AN1" s="335"/>
       <c r="AO1" s="347" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AP1" s="348"/>
       <c r="AQ1" s="349"/>
@@ -56227,7 +56260,7 @@
       <c r="Y3" s="351"/>
       <c r="Z3" s="352"/>
       <c r="AA3" s="353" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB3" s="354"/>
       <c r="AC3" s="354"/>
@@ -56243,7 +56276,7 @@
       <c r="AK3" s="357"/>
       <c r="AL3" s="358"/>
       <c r="AM3" s="353" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN3" s="354"/>
       <c r="AO3" s="354"/>
@@ -56388,7 +56421,7 @@
       <c r="A6" s="20"/>
       <c r="B6" s="27"/>
       <c r="C6" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -56450,7 +56483,7 @@
       <c r="B7" s="27"/>
       <c r="C7" s="18"/>
       <c r="D7" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
@@ -56511,7 +56544,7 @@
       <c r="B8" s="27"/>
       <c r="C8" s="18"/>
       <c r="D8" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -56860,7 +56893,7 @@
     </row>
     <row r="33" spans="2:45" ht="13.5" customHeight="1">
       <c r="C33" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="2:45" ht="13.5" customHeight="1">
@@ -56925,7 +56958,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E35" s="89"/>
       <c r="F35" s="128"/>
@@ -56935,7 +56968,7 @@
       <c r="J35" s="128"/>
       <c r="K35" s="129"/>
       <c r="L35" s="88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M35" s="128"/>
       <c r="N35" s="128"/>
@@ -56961,7 +56994,7 @@
       <c r="AH35" s="128"/>
       <c r="AI35" s="129"/>
       <c r="AJ35" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK35" s="128"/>
       <c r="AL35" s="131"/>
@@ -56978,7 +57011,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="88" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E36" s="89"/>
       <c r="F36" s="89"/>
@@ -56988,7 +57021,7 @@
       <c r="J36" s="151"/>
       <c r="K36" s="152"/>
       <c r="L36" s="88" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M36" s="151"/>
       <c r="N36" s="151"/>
@@ -57006,7 +57039,7 @@
       <c r="Z36" s="151"/>
       <c r="AA36" s="152"/>
       <c r="AB36" s="79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AC36" s="151"/>
       <c r="AD36" s="151"/>
@@ -57016,7 +57049,7 @@
       <c r="AH36" s="151"/>
       <c r="AI36" s="152"/>
       <c r="AJ36" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK36" s="151"/>
       <c r="AL36" s="177"/>
@@ -57061,7 +57094,7 @@
       <c r="Z37" s="151"/>
       <c r="AA37" s="152"/>
       <c r="AB37" s="79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AC37" s="151"/>
       <c r="AD37" s="151"/>
@@ -57071,7 +57104,7 @@
       <c r="AH37" s="151"/>
       <c r="AI37" s="152"/>
       <c r="AJ37" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK37" s="151"/>
       <c r="AL37" s="177"/>
@@ -57088,7 +57121,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E38" s="89"/>
       <c r="F38" s="89"/>
@@ -57098,7 +57131,7 @@
       <c r="J38" s="151"/>
       <c r="K38" s="152"/>
       <c r="L38" s="88" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M38" s="151"/>
       <c r="N38" s="151"/>
@@ -57116,7 +57149,7 @@
       <c r="Z38" s="151"/>
       <c r="AA38" s="152"/>
       <c r="AB38" s="88" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC38" s="151"/>
       <c r="AD38" s="151"/>
@@ -57126,7 +57159,7 @@
       <c r="AH38" s="151"/>
       <c r="AI38" s="152"/>
       <c r="AJ38" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK38" s="151"/>
       <c r="AL38" s="177"/>
@@ -57143,7 +57176,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E39" s="89"/>
       <c r="F39" s="89"/>
@@ -57153,7 +57186,7 @@
       <c r="J39" s="151"/>
       <c r="K39" s="152"/>
       <c r="L39" s="88" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M39" s="151"/>
       <c r="N39" s="151"/>
@@ -57171,7 +57204,7 @@
       <c r="Z39" s="151"/>
       <c r="AA39" s="152"/>
       <c r="AB39" s="88" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC39" s="151"/>
       <c r="AD39" s="151"/>
@@ -57181,7 +57214,7 @@
       <c r="AH39" s="151"/>
       <c r="AI39" s="112"/>
       <c r="AJ39" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK39" s="151"/>
       <c r="AL39" s="177"/>
@@ -57198,7 +57231,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="220" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E40" s="218"/>
       <c r="F40" s="89"/>
@@ -57208,7 +57241,7 @@
       <c r="J40" s="151"/>
       <c r="K40" s="152"/>
       <c r="L40" s="220" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M40" s="151"/>
       <c r="N40" s="151"/>
@@ -57226,7 +57259,7 @@
       <c r="Z40" s="151"/>
       <c r="AA40" s="152"/>
       <c r="AB40" s="220" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AC40" s="151"/>
       <c r="AD40" s="151"/>
@@ -57236,7 +57269,7 @@
       <c r="AH40" s="151"/>
       <c r="AI40" s="273"/>
       <c r="AJ40" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK40" s="151"/>
       <c r="AL40" s="177"/>
@@ -57281,7 +57314,7 @@
       <c r="Z41" s="151"/>
       <c r="AA41" s="152"/>
       <c r="AB41" s="88" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="AC41" s="151"/>
       <c r="AD41" s="151"/>
@@ -57291,7 +57324,7 @@
       <c r="AH41" s="151"/>
       <c r="AI41" s="152"/>
       <c r="AJ41" s="128" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AK41" s="151"/>
       <c r="AL41" s="177"/>
@@ -57308,7 +57341,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="159" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E42" s="160"/>
       <c r="F42" s="156"/>
@@ -57318,7 +57351,7 @@
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
       <c r="L42" s="159" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -57336,7 +57369,7 @@
       <c r="Z42" s="22"/>
       <c r="AA42" s="199"/>
       <c r="AB42" s="114" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AD42" s="22"/>
       <c r="AE42" s="22"/>
@@ -57345,7 +57378,7 @@
       <c r="AH42" s="22"/>
       <c r="AI42" s="199"/>
       <c r="AJ42" s="71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK42" s="22"/>
       <c r="AL42" s="199"/>
@@ -57451,7 +57484,7 @@
     </row>
     <row r="46" spans="2:45" ht="13.5" customHeight="1">
       <c r="C46" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="2:45" ht="13.5" customHeight="1">
@@ -57516,7 +57549,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E48" s="89"/>
       <c r="F48" s="128"/>
@@ -57526,7 +57559,7 @@
       <c r="J48" s="128"/>
       <c r="K48" s="129"/>
       <c r="L48" s="88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M48" s="128"/>
       <c r="N48" s="128"/>
@@ -57552,7 +57585,7 @@
       <c r="AH48" s="128"/>
       <c r="AI48" s="129"/>
       <c r="AJ48" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK48" s="128"/>
       <c r="AL48" s="131"/>
@@ -57569,7 +57602,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="88" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E49" s="89"/>
       <c r="F49" s="89"/>
@@ -57579,7 +57612,7 @@
       <c r="J49" s="151"/>
       <c r="K49" s="152"/>
       <c r="L49" s="88" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M49" s="151"/>
       <c r="N49" s="151"/>
@@ -57597,7 +57630,7 @@
       <c r="Z49" s="151"/>
       <c r="AA49" s="152"/>
       <c r="AB49" s="79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AC49" s="151"/>
       <c r="AD49" s="151"/>
@@ -57607,7 +57640,7 @@
       <c r="AH49" s="151"/>
       <c r="AI49" s="152"/>
       <c r="AJ49" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK49" s="151"/>
       <c r="AL49" s="177"/>
@@ -57624,7 +57657,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E50" s="89"/>
       <c r="F50" s="89"/>
@@ -57652,7 +57685,7 @@
       <c r="Z50" s="151"/>
       <c r="AA50" s="152"/>
       <c r="AB50" s="79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AC50" s="151"/>
       <c r="AD50" s="151"/>
@@ -57662,7 +57695,7 @@
       <c r="AH50" s="151"/>
       <c r="AI50" s="152"/>
       <c r="AJ50" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK50" s="151"/>
       <c r="AL50" s="177"/>
@@ -57679,7 +57712,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E51" s="89"/>
       <c r="F51" s="89"/>
@@ -57689,7 +57722,7 @@
       <c r="J51" s="151"/>
       <c r="K51" s="152"/>
       <c r="L51" s="88" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M51" s="151"/>
       <c r="N51" s="151"/>
@@ -57707,7 +57740,7 @@
       <c r="Z51" s="151"/>
       <c r="AA51" s="152"/>
       <c r="AB51" s="88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC51" s="151"/>
       <c r="AD51" s="151"/>
@@ -57717,7 +57750,7 @@
       <c r="AH51" s="151"/>
       <c r="AI51" s="112"/>
       <c r="AJ51" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK51" s="151"/>
       <c r="AL51" s="177"/>
@@ -57734,7 +57767,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="220" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E52" s="218"/>
       <c r="F52" s="89"/>
@@ -57744,7 +57777,7 @@
       <c r="J52" s="151"/>
       <c r="K52" s="152"/>
       <c r="L52" s="220" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M52" s="151"/>
       <c r="N52" s="151"/>
@@ -57762,7 +57795,7 @@
       <c r="Z52" s="151"/>
       <c r="AA52" s="152"/>
       <c r="AB52" s="220" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC52" s="151"/>
       <c r="AD52" s="151"/>
@@ -57772,7 +57805,7 @@
       <c r="AH52" s="151"/>
       <c r="AI52" s="273"/>
       <c r="AJ52" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK52" s="151"/>
       <c r="AL52" s="177"/>
@@ -57817,7 +57850,7 @@
       <c r="Z53" s="151"/>
       <c r="AA53" s="152"/>
       <c r="AB53" s="88" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AC53" s="151"/>
       <c r="AD53" s="151"/>
@@ -57827,7 +57860,7 @@
       <c r="AH53" s="151"/>
       <c r="AI53" s="152"/>
       <c r="AJ53" s="128" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AK53" s="151"/>
       <c r="AL53" s="177"/>
@@ -57844,7 +57877,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="159" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E54" s="160"/>
       <c r="F54" s="156"/>
@@ -57854,7 +57887,7 @@
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
       <c r="L54" s="159" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -57872,7 +57905,7 @@
       <c r="Z54" s="22"/>
       <c r="AA54" s="199"/>
       <c r="AB54" s="114" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AD54" s="22"/>
       <c r="AE54" s="22"/>
@@ -57881,7 +57914,7 @@
       <c r="AH54" s="22"/>
       <c r="AI54" s="199"/>
       <c r="AJ54" s="71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK54" s="22"/>
       <c r="AL54" s="199"/>
@@ -57985,7 +58018,7 @@
     </row>
     <row r="60" spans="3:45" ht="13.5" customHeight="1">
       <c r="D60" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
@@ -58005,17 +58038,17 @@
     </row>
     <row r="61" spans="3:45" ht="13.5" customHeight="1">
       <c r="E61" s="114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="3:45" ht="13.5" customHeight="1">
       <c r="D62" s="18" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="3:45" ht="13.5" customHeight="1">
       <c r="E63" s="22" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F63" s="22"/>
       <c r="G63" s="22"/>
@@ -58034,7 +58067,7 @@
     </row>
     <row r="64" spans="3:45" ht="13.5" customHeight="1">
       <c r="E64" s="22" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F64" s="22"/>
       <c r="G64" s="22"/>
@@ -58053,27 +58086,27 @@
     </row>
     <row r="65" spans="4:46" ht="13.5" customHeight="1">
       <c r="D65" s="18" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="4:46" ht="13.5" customHeight="1">
       <c r="E66" s="22" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="4:46" ht="13.5" customHeight="1">
       <c r="E67" s="22" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="4:46" ht="13.5" customHeight="1">
       <c r="E68" s="18" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="4:46" ht="13.5" customHeight="1">
       <c r="D71" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="4:46" ht="13.5" customHeight="1">
@@ -58138,7 +58171,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="88" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F73" s="128"/>
       <c r="G73" s="128"/>
@@ -58148,7 +58181,7 @@
       <c r="K73" s="128"/>
       <c r="L73" s="129"/>
       <c r="M73" s="88" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="N73" s="128"/>
       <c r="O73" s="128"/>
@@ -58166,7 +58199,7 @@
       <c r="AA73" s="128"/>
       <c r="AB73" s="129"/>
       <c r="AC73" s="128" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AD73" s="128"/>
       <c r="AE73" s="128"/>
@@ -58176,7 +58209,7 @@
       <c r="AI73" s="128"/>
       <c r="AJ73" s="129"/>
       <c r="AK73" s="130" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL73" s="128"/>
       <c r="AM73" s="131"/>
@@ -58193,7 +58226,7 @@
         <v>2</v>
       </c>
       <c r="E74" s="88" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F74" s="89"/>
       <c r="G74" s="89"/>
@@ -58203,7 +58236,7 @@
       <c r="K74" s="151"/>
       <c r="L74" s="152"/>
       <c r="M74" s="88" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="N74" s="151"/>
       <c r="O74" s="151"/>
@@ -58221,7 +58254,7 @@
       <c r="AA74" s="151"/>
       <c r="AB74" s="152"/>
       <c r="AC74" s="88" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="AD74" s="151"/>
       <c r="AE74" s="151"/>
@@ -58231,7 +58264,7 @@
       <c r="AI74" s="151"/>
       <c r="AJ74" s="152"/>
       <c r="AK74" s="173" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL74" s="151"/>
       <c r="AM74" s="177"/>
@@ -58248,7 +58281,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="168" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F75" s="169"/>
       <c r="G75" s="169"/>
@@ -58258,7 +58291,7 @@
       <c r="K75" s="121"/>
       <c r="L75" s="122"/>
       <c r="M75" s="121" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="N75" s="121"/>
       <c r="O75" s="121"/>
@@ -58276,7 +58309,7 @@
       <c r="AA75" s="121"/>
       <c r="AB75" s="122"/>
       <c r="AC75" s="121" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AD75" s="201"/>
       <c r="AE75" s="121"/>
@@ -58286,7 +58319,7 @@
       <c r="AI75" s="121"/>
       <c r="AJ75" s="122"/>
       <c r="AK75" s="151" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL75" s="121"/>
       <c r="AM75" s="122"/>
@@ -58330,7 +58363,7 @@
   <dimension ref="A1:BF17"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="113" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1"/>
@@ -58378,7 +58411,7 @@
       <c r="Y1" s="340"/>
       <c r="Z1" s="341"/>
       <c r="AA1" s="345" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB1" s="325"/>
       <c r="AC1" s="325"/>
@@ -58396,7 +58429,7 @@
       </c>
       <c r="AN1" s="335"/>
       <c r="AO1" s="347" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AP1" s="348"/>
       <c r="AQ1" s="349"/>
@@ -58512,7 +58545,7 @@
       <c r="Y3" s="351"/>
       <c r="Z3" s="352"/>
       <c r="AA3" s="353" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB3" s="354"/>
       <c r="AC3" s="354"/>
@@ -58528,7 +58561,7 @@
       <c r="AK3" s="357"/>
       <c r="AL3" s="358"/>
       <c r="AM3" s="353" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN3" s="354"/>
       <c r="AO3" s="354"/>
@@ -58673,7 +58706,7 @@
       <c r="A6" s="20"/>
       <c r="B6" s="27"/>
       <c r="C6" s="18" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -58735,7 +58768,7 @@
       <c r="B7" s="27"/>
       <c r="C7" s="18"/>
       <c r="D7" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
@@ -58795,10 +58828,10 @@
       <c r="A8" s="20"/>
       <c r="B8" s="27"/>
       <c r="C8" s="18"/>
-      <c r="D8" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="E8" s="22"/>
+      <c r="D8" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="18"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
@@ -58856,10 +58889,10 @@
       <c r="A9" s="20"/>
       <c r="B9" s="27"/>
       <c r="C9" s="18"/>
-      <c r="D9" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="22" t="s">
+        <v>209</v>
+      </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -58919,7 +58952,7 @@
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="22" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
@@ -58978,10 +59011,10 @@
       <c r="A11" s="20"/>
       <c r="B11" s="27"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="22" t="s">
-        <v>216</v>
-      </c>
+      <c r="D11" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" s="18"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
@@ -59039,10 +59072,10 @@
       <c r="A12" s="20"/>
       <c r="B12" s="27"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="E12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="22" t="s">
+        <v>213</v>
+      </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -59102,7 +59135,7 @@
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="22" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
@@ -59162,8 +59195,8 @@
       <c r="B14" s="27"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="22" t="s">
-        <v>217</v>
+      <c r="E14" s="18" t="s">
+        <v>212</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
@@ -59224,7 +59257,7 @@
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -59284,9 +59317,7 @@
       <c r="B16" s="27"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
-      <c r="E16" s="18" t="s">
-        <v>220</v>
-      </c>
+      <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -59344,8 +59375,6 @@
       <c r="A17" s="18"/>
       <c r="B17" s="27"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
@@ -59427,10 +59456,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB8B520-4131-4462-B35D-4F35B8E64CC5}">
-  <dimension ref="A1:BF23"/>
+  <dimension ref="A1:BF26"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="113" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="113" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1"/>
@@ -59478,7 +59507,7 @@
       <c r="Y1" s="340"/>
       <c r="Z1" s="341"/>
       <c r="AA1" s="345" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB1" s="325"/>
       <c r="AC1" s="325"/>
@@ -59496,7 +59525,7 @@
       </c>
       <c r="AN1" s="335"/>
       <c r="AO1" s="347" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AP1" s="348"/>
       <c r="AQ1" s="349"/>
@@ -59612,7 +59641,7 @@
       <c r="Y3" s="351"/>
       <c r="Z3" s="352"/>
       <c r="AA3" s="353" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB3" s="354"/>
       <c r="AC3" s="354"/>
@@ -59628,7 +59657,7 @@
       <c r="AK3" s="357"/>
       <c r="AL3" s="358"/>
       <c r="AM3" s="353" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN3" s="354"/>
       <c r="AO3" s="354"/>
@@ -59770,7 +59799,7 @@
     <row r="6" spans="1:58" ht="13.5" customHeight="1">
       <c r="A6" s="20"/>
       <c r="C6" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="108"/>
@@ -59820,7 +59849,7 @@
     <row r="7" spans="1:58" ht="13.5" customHeight="1">
       <c r="A7" s="20"/>
       <c r="D7" s="22" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E7" s="108"/>
       <c r="F7" s="22"/>
@@ -59919,7 +59948,7 @@
       <c r="A9" s="20"/>
       <c r="D9" s="22"/>
       <c r="E9" s="135" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -60030,7 +60059,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="141" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G11" s="142"/>
       <c r="H11" s="142"/>
@@ -60040,7 +60069,7 @@
       <c r="L11" s="143"/>
       <c r="M11" s="144"/>
       <c r="N11" s="153" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="O11" s="142"/>
       <c r="P11" s="142"/>
@@ -60064,7 +60093,7 @@
       <c r="AH11" s="145"/>
       <c r="AI11" s="149"/>
       <c r="AJ11" s="179" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AK11" s="146"/>
       <c r="AL11" s="146"/>
@@ -60185,7 +60214,7 @@
       <c r="A14" s="20"/>
       <c r="D14" s="76"/>
       <c r="E14" s="135" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -60309,7 +60338,7 @@
       <c r="L16" s="283"/>
       <c r="M16" s="284"/>
       <c r="N16" s="153" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O16" s="282"/>
       <c r="P16" s="282"/>
@@ -60333,7 +60362,7 @@
       <c r="AH16" s="285"/>
       <c r="AI16" s="289"/>
       <c r="AJ16" s="179" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AK16" s="286"/>
       <c r="AL16" s="286"/>
@@ -60376,7 +60405,7 @@
       <c r="L17" s="283"/>
       <c r="M17" s="284"/>
       <c r="N17" s="281" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O17" s="282"/>
       <c r="P17" s="282"/>
@@ -60400,7 +60429,7 @@
       <c r="AH17" s="285"/>
       <c r="AI17" s="289"/>
       <c r="AJ17" s="179" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AK17" s="286"/>
       <c r="AL17" s="286"/>
@@ -60545,7 +60574,7 @@
     <row r="20" spans="1:58" ht="13.5" customHeight="1">
       <c r="C20" s="27"/>
       <c r="D20" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
@@ -60595,7 +60624,7 @@
     <row r="21" spans="1:58" ht="13.5" customHeight="1">
       <c r="C21" s="27"/>
       <c r="D21" s="135" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -60645,7 +60674,7 @@
     <row r="22" spans="1:58" ht="13.5" customHeight="1">
       <c r="C22" s="27"/>
       <c r="E22" s="135" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
@@ -60693,7 +60722,22 @@
     </row>
     <row r="23" spans="1:58" ht="13.5" customHeight="1">
       <c r="E23" s="135" t="s">
-        <v>239</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58" ht="13.5" customHeight="1">
+      <c r="F24" s="114" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:58" ht="13.5" customHeight="1">
+      <c r="F25" s="114" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58" ht="13.5" customHeight="1">
+      <c r="F26" s="114" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -60725,10 +60769,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8155FBA4-787B-4532-B4AF-4D7082323A3A}">
-  <dimension ref="A1:BF24"/>
+  <dimension ref="A1:BF27"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="113" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="E23" sqref="E23:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1"/>
@@ -60776,7 +60820,7 @@
       <c r="Y1" s="340"/>
       <c r="Z1" s="341"/>
       <c r="AA1" s="345" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB1" s="325"/>
       <c r="AC1" s="325"/>
@@ -60794,7 +60838,7 @@
       </c>
       <c r="AN1" s="335"/>
       <c r="AO1" s="347" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AP1" s="348"/>
       <c r="AQ1" s="349"/>
@@ -60910,7 +60954,7 @@
       <c r="Y3" s="351"/>
       <c r="Z3" s="352"/>
       <c r="AA3" s="353" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB3" s="354"/>
       <c r="AC3" s="354"/>
@@ -60926,7 +60970,7 @@
       <c r="AK3" s="357"/>
       <c r="AL3" s="358"/>
       <c r="AM3" s="353" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN3" s="354"/>
       <c r="AO3" s="354"/>
@@ -61068,7 +61112,7 @@
     <row r="6" spans="1:58" ht="13.5" customHeight="1">
       <c r="A6" s="20"/>
       <c r="C6" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="108"/>
@@ -61118,7 +61162,7 @@
     <row r="7" spans="1:58" ht="13.5" customHeight="1">
       <c r="A7" s="20"/>
       <c r="D7" s="22" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E7" s="108"/>
       <c r="F7" s="22"/>
@@ -61217,7 +61261,7 @@
       <c r="A9" s="20"/>
       <c r="D9" s="22"/>
       <c r="E9" s="135" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -61328,7 +61372,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="141" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G11" s="142"/>
       <c r="H11" s="142"/>
@@ -61338,7 +61382,7 @@
       <c r="L11" s="143"/>
       <c r="M11" s="144"/>
       <c r="N11" s="153" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="O11" s="142"/>
       <c r="P11" s="142"/>
@@ -61362,7 +61406,7 @@
       <c r="AH11" s="145"/>
       <c r="AI11" s="149"/>
       <c r="AJ11" s="179" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AK11" s="146"/>
       <c r="AL11" s="146"/>
@@ -61483,7 +61527,7 @@
       <c r="A14" s="20"/>
       <c r="D14" s="76"/>
       <c r="E14" s="135" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -61607,7 +61651,7 @@
       <c r="L16" s="283"/>
       <c r="M16" s="284"/>
       <c r="N16" s="153" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O16" s="282"/>
       <c r="P16" s="282"/>
@@ -61631,7 +61675,7 @@
       <c r="AH16" s="285"/>
       <c r="AI16" s="289"/>
       <c r="AJ16" s="179" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AK16" s="286"/>
       <c r="AL16" s="286"/>
@@ -61674,7 +61718,7 @@
       <c r="L17" s="283"/>
       <c r="M17" s="284"/>
       <c r="N17" s="281" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O17" s="282"/>
       <c r="P17" s="282"/>
@@ -61698,7 +61742,7 @@
       <c r="AH17" s="285"/>
       <c r="AI17" s="289"/>
       <c r="AJ17" s="179" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AK17" s="286"/>
       <c r="AL17" s="286"/>
@@ -61843,7 +61887,7 @@
     <row r="20" spans="1:58" ht="13.5" customHeight="1">
       <c r="C20" s="27"/>
       <c r="D20" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
@@ -61893,7 +61937,7 @@
     <row r="21" spans="1:58" ht="13.5" customHeight="1">
       <c r="C21" s="27"/>
       <c r="D21" s="135" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -61943,7 +61987,7 @@
     <row r="22" spans="1:58" ht="13.5" customHeight="1">
       <c r="C22" s="27"/>
       <c r="E22" s="135" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
@@ -61991,16 +62035,83 @@
     </row>
     <row r="23" spans="1:58" ht="13.5" customHeight="1">
       <c r="E23" s="135" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:58" ht="13.5" customHeight="1">
-      <c r="D24" s="135" t="s">
-        <v>241</v>
+      <c r="F24" s="114" t="s">
+        <v>256</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+    </row>
+    <row r="25" spans="1:58" ht="13.5" customHeight="1">
+      <c r="F25" s="114" t="s">
+        <v>257</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+    </row>
+    <row r="26" spans="1:58" ht="13.5" customHeight="1">
+      <c r="F26" s="114" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58" ht="13.5" customHeight="1">
+      <c r="D27" s="135" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AM3:AW3"/>
     <mergeCell ref="A1:I3"/>
@@ -62016,8 +62127,6 @@
     <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="30" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
